--- a/NformTester/NformTester/Keywordscripts/TST983_UsersGroupManagement.xlsx
+++ b/NformTester/NformTester/Keywordscripts/TST983_UsersGroupManagement.xlsx
@@ -4696,7 +4696,7 @@
   <dimension ref="A1:O80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6607,7 +6607,7 @@
         <v>792</v>
       </c>
       <c r="F71" s="4">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -6668,7 +6668,7 @@
         <v>73</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>810</v>
+        <v>797</v>
       </c>
       <c r="E74" s="12" t="s">
         <v>19</v>
@@ -6855,7 +6855,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D34:D43 D50:D53 D45:D48 D3:D4 D6:D12 D14:D32 D73:D80 D55:D69 D71">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D34:D43 D73:D80 D55:D69 D71 D14:D32 D6:D12 D3:D4 D45:D48 D50:D53">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F80">

--- a/NformTester/NformTester/Keywordscripts/TST983_UsersGroupManagement.xlsx
+++ b/NformTester/NformTester/Keywordscripts/TST983_UsersGroupManagement.xlsx
@@ -1196,12 +1196,12 @@
     <definedName name="Pause">'Form DataValDepend'!$CD$1</definedName>
     <definedName name="PauseCol">'Form DataValDepend'!$CD:$CD</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7403" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7404" uniqueCount="831">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3733,6 +3733,10 @@
   </si>
   <si>
     <t>"Administrator"</t>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3743,7 +3747,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3751,20 +3755,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3772,7 +3776,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3964,9 +3968,9 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -4409,7 +4413,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4696,20 +4700,20 @@
   <dimension ref="A1:O80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" customWidth="1"/>
-    <col min="6" max="6" width="52.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.375" customWidth="1"/>
+    <col min="2" max="2" width="27.875" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="30.375" customWidth="1"/>
+    <col min="6" max="6" width="52.875" customWidth="1"/>
+    <col min="7" max="7" width="18.875" customWidth="1"/>
+    <col min="8" max="8" width="17.875" customWidth="1"/>
+    <col min="9" max="9" width="16.875" customWidth="1"/>
+    <col min="10" max="10" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="30.75" customHeight="1">
@@ -4757,7 +4761,7 @@
       </c>
       <c r="O1" s="11"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="15">
       <c r="A2" s="2" t="s">
         <v>753</v>
       </c>
@@ -4846,7 +4850,7 @@
       <c r="N4" s="15"/>
       <c r="O4" s="11"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" ht="15">
       <c r="A5" s="2" t="s">
         <v>757</v>
       </c>
@@ -5080,7 +5084,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="11"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" ht="15">
       <c r="A13" s="2" t="s">
         <v>765</v>
       </c>
@@ -5432,7 +5436,7 @@
       <c r="N24" s="16"/>
       <c r="O24" s="11"/>
     </row>
-    <row r="25" spans="1:15" ht="16.5">
+    <row r="25" spans="1:15" ht="14.25">
       <c r="C25" s="4">
         <v>24</v>
       </c>
@@ -5497,7 +5501,7 @@
         <v>248</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>259</v>
+        <v>9</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>137</v>
@@ -5636,7 +5640,7 @@
       <c r="N32" s="16"/>
       <c r="O32" s="11"/>
     </row>
-    <row r="33" spans="3:15">
+    <row r="33" spans="3:15" ht="15">
       <c r="C33" s="4">
         <v>32</v>
       </c>
@@ -5919,7 +5923,7 @@
       <c r="N43" s="16"/>
       <c r="O43" s="11"/>
     </row>
-    <row r="44" spans="3:15">
+    <row r="44" spans="3:15" ht="15">
       <c r="C44" s="4">
         <v>43</v>
       </c>
@@ -5927,7 +5931,9 @@
         <v>825</v>
       </c>
       <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
+      <c r="F44" s="4" t="s">
+        <v>830</v>
+      </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
@@ -6044,7 +6050,7 @@
       <c r="N48" s="16"/>
       <c r="O48" s="11"/>
     </row>
-    <row r="49" spans="3:15">
+    <row r="49" spans="3:15" ht="15">
       <c r="C49" s="4">
         <v>48</v>
       </c>
@@ -6169,7 +6175,7 @@
       <c r="N53" s="16"/>
       <c r="O53" s="11"/>
     </row>
-    <row r="54" spans="3:15">
+    <row r="54" spans="3:15" ht="15">
       <c r="C54" s="4">
         <v>53</v>
       </c>
@@ -6619,7 +6625,7 @@
       <c r="N71" s="16"/>
       <c r="O71" s="11"/>
     </row>
-    <row r="72" spans="3:15">
+    <row r="72" spans="3:15" ht="15">
       <c r="C72" s="4">
         <v>71</v>
       </c>
@@ -6884,9 +6890,9 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:82">
@@ -10627,7 +10633,7 @@
       <selection activeCell="AJR7" sqref="AJR7:AJR8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1014">
       <c r="A1" t="s">
@@ -28432,10 +28438,10 @@
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.375" customWidth="1"/>
+    <col min="2" max="2" width="27.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -28581,6 +28587,7 @@
       <c r="B21" s="10"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>